--- a/statistiche/RandomForestCounterfactuals/GI.xlsx
+++ b/statistiche/RandomForestCounterfactuals/GI.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>1</v>
@@ -1202,22 +1202,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>1</v>
@@ -1272,22 +1272,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1406,22 +1406,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1519,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1543,25 +1543,25 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
